--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,75 +40,69 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>cut</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -127,12 +121,12 @@
     <t>buying</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>supermarket</t>
   </si>
   <si>
@@ -151,126 +145,132 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>save</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>share</t>
+    <t>important</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
@@ -280,16 +280,10 @@
     <t>need</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>amp</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
   <si>
     <t>grocery</t>
@@ -650,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,13 +713,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -761,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -769,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8287671232876712</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -819,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -861,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8157894736842105</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,16 +884,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,31 +931,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.8433420365535248</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>323</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>323</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7297297297297297</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.8292682926829268</v>
+        <v>0.8481675392670157</v>
       </c>
       <c r="L11">
-        <v>68</v>
+        <v>324</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <v>325</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1158,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.675</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,31 +1181,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L12">
+        <v>69</v>
+      </c>
+      <c r="M12">
+        <v>69</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>13</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L12">
-        <v>47</v>
-      </c>
-      <c r="M12">
-        <v>47</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6078431372549019</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1237,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5988372093023255</v>
+        <v>0.5794573643410853</v>
       </c>
       <c r="C14">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D14">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.8028169014084507</v>
+        <v>0.8125</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5932203389830508</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.8</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L15">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.582010582010582</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C16">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.796875</v>
+        <v>0.8046875</v>
       </c>
       <c r="L16">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1411,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5641025641025641</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.7924528301886793</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L17">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1461,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5570469798657718</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C18">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D18">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.7906976744186046</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1511,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1519,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1537,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.7708333333333334</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1561,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,7 +1563,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5135135135135135</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1587,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
         <v>21</v>
@@ -1611,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,13 +1613,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4909090909090909</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1637,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.7407407407407407</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1661,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>34</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22">
+        <v>0.75</v>
+      </c>
+      <c r="L22">
         <v>30</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="L22">
-        <v>46</v>
-      </c>
       <c r="M22">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1711,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1719,13 +1713,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4363636363636363</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1737,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1761,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1769,13 +1763,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4333333333333333</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1790,25 +1784,25 @@
         <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.6923076923076923</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -1819,13 +1813,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4133333333333333</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1837,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>0.6857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1861,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1869,13 +1863,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4025974025974026</v>
+        <v>0.25</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1887,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>0.6735294117647059</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L26">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1911,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1919,13 +1913,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3412698412698413</v>
+        <v>0.2332439678284182</v>
       </c>
       <c r="C27">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1937,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>0.64</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1961,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1969,13 +1963,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3125</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1987,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K28">
-        <v>0.6363636363636364</v>
+        <v>0.6372881355932203</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2011,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2019,37 +2013,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2204301075268817</v>
+        <v>0.07876712328767123</v>
       </c>
       <c r="C29">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E29">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F29">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K29">
-        <v>0.6271186440677966</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L29">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2061,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2069,37 +2063,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.18</v>
+        <v>0.03972366148531951</v>
       </c>
       <c r="C30">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D30">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>246</v>
+        <v>1112</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K30">
-        <v>0.6192468619246861</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L30">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M30">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2111,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2119,37 +2113,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.07167235494880546</v>
+        <v>0.03625768857235351</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>272</v>
+        <v>2977</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2161,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2169,37 +2163,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03894839337877313</v>
+        <v>0.03012746234067207</v>
       </c>
       <c r="C32">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="F32">
-        <v>0.8200000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2961</v>
+        <v>837</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K32">
-        <v>0.5957446808510638</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L32">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2211,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2219,37 +2213,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03816131830008673</v>
+        <v>0.02129673450070989</v>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E33">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="F33">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1109</v>
+        <v>2068</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K33">
-        <v>0.5882352941176471</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2261,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2269,137 +2263,89 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03128621089223638</v>
+        <v>0.009312780989081566</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="E34">
-        <v>0.13</v>
+        <v>0.75</v>
       </c>
       <c r="F34">
-        <v>0.87</v>
+        <v>0.25</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>836</v>
+        <v>3085</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34">
+        <v>0.5955056179775281</v>
+      </c>
+      <c r="L34">
+        <v>53</v>
+      </c>
+      <c r="M34">
+        <v>53</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L35">
+        <v>41</v>
+      </c>
+      <c r="M35">
+        <v>41</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K34">
-        <v>0.5857142857142857</v>
-      </c>
-      <c r="L34">
-        <v>41</v>
-      </c>
-      <c r="M34">
-        <v>41</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="K36">
+        <v>0.5686274509803921</v>
+      </c>
+      <c r="L36">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.02826189354686764</v>
-      </c>
-      <c r="C35">
-        <v>60</v>
-      </c>
-      <c r="D35">
-        <v>80</v>
-      </c>
-      <c r="E35">
-        <v>0.25</v>
-      </c>
-      <c r="F35">
-        <v>0.75</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>2063</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35">
-        <v>0.5853658536585366</v>
-      </c>
-      <c r="L35">
-        <v>24</v>
-      </c>
-      <c r="M35">
-        <v>25</v>
-      </c>
-      <c r="N35">
-        <v>0.96</v>
-      </c>
-      <c r="O35">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.00967741935483871</v>
-      </c>
-      <c r="C36">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>131</v>
-      </c>
-      <c r="E36">
-        <v>0.77</v>
-      </c>
-      <c r="F36">
-        <v>0.23</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>3070</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36">
-        <v>0.5730337078651685</v>
-      </c>
-      <c r="L36">
-        <v>51</v>
-      </c>
       <c r="M36">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2411,21 +2357,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K37">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2437,47 +2383,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K38">
-        <v>0.4583333333333333</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K39">
-        <v>0.456140350877193</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2489,21 +2435,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K40">
-        <v>0.421875</v>
+        <v>0.375</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2515,21 +2461,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K41">
-        <v>0.3898305084745763</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2541,21 +2487,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K42">
-        <v>0.3770491803278688</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2567,73 +2513,73 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K43">
-        <v>0.3717948717948718</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K44">
-        <v>0.1904761904761905</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N44">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="O44">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K45">
-        <v>0.1693548387096774</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2645,47 +2591,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K46">
-        <v>0.1006493506493507</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>277</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K47">
-        <v>0.08996539792387544</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2697,215 +2643,189 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>263</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K48">
-        <v>0.07780979827089338</v>
+        <v>0.1042345276872964</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>320</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K49">
-        <v>0.0748792270531401</v>
+        <v>0.08304498269896193</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>383</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K50">
-        <v>0.04231974921630094</v>
+        <v>0.06265060240963856</v>
       </c>
       <c r="L50">
+        <v>26</v>
+      </c>
+      <c r="M50">
         <v>27</v>
       </c>
-      <c r="M50">
-        <v>39</v>
-      </c>
       <c r="N50">
-        <v>0.6899999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0.3100000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>611</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="K51">
-        <v>0.03185115105644907</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="L51">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="N51">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="O51">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>3070</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K52">
-        <v>0.02587176602924635</v>
+        <v>0.0334448160535117</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N52">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="O52">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K53">
-        <v>0.0244988864142539</v>
+        <v>0.02742749054224464</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="N53">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="O53">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>876</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>0.009601536245799328</v>
+        <v>0.01429933269780744</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M54">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N54">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="O54">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K55">
-        <v>0.008704385671242048</v>
-      </c>
-      <c r="L55">
-        <v>26</v>
-      </c>
-      <c r="M55">
-        <v>146</v>
-      </c>
-      <c r="N55">
-        <v>0.18</v>
-      </c>
-      <c r="O55">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>2961</v>
+        <v>2068</v>
       </c>
     </row>
   </sheetData>
